--- a/Team-Data/2014-15/1-26-2014-15.xlsx
+++ b/Team-Data/2014-15/1-26-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>7.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -780,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -819,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="BC2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.372</v>
+        <v>0.357</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
       </c>
       <c r="I3" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J3" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L3" t="n">
         <v>7.6</v>
       </c>
       <c r="M3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="P3" t="n">
         <v>19.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.756</v>
+        <v>0.752</v>
       </c>
       <c r="R3" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U3" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
@@ -911,31 +978,31 @@
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="n">
         <v>101.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -965,19 +1032,19 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
@@ -989,10 +1056,10 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1147,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1329,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>21</v>
@@ -1338,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
         <v>27</v>
@@ -1353,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1666,10 +1733,10 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1684,16 +1751,16 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1702,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>12</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J8" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1830,31 +1897,31 @@
         <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>108</v>
+        <v>107.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1863,16 +1930,16 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>12</v>
@@ -1881,10 +1948,10 @@
         <v>16</v>
       </c>
       <c r="AS8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT8" t="n">
         <v>21</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>0.409</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J9" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L9" t="n">
         <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T9" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="U9" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2006,31 +2073,31 @@
         <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2051,7 +2118,7 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP9" t="n">
         <v>3</v>
@@ -2066,13 +2133,13 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2081,13 +2148,13 @@
         <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,13 +2279,13 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2236,7 +2303,7 @@
         <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2260,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>11.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2409,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2553,52 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
         <v>43.4</v>
@@ -2543,7 +2610,7 @@
         <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
@@ -2552,40 +2619,40 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,49 +2661,49 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2837,7 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2785,7 +2852,7 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>14</v>
@@ -2812,7 +2879,7 @@
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2874,10 +2941,10 @@
         <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M14" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N14" t="n">
         <v>0.384</v>
@@ -2886,19 +2953,19 @@
         <v>18.9</v>
       </c>
       <c r="P14" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.749</v>
+        <v>0.746</v>
       </c>
       <c r="R14" t="n">
         <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U14" t="n">
         <v>25.1</v>
@@ -2916,28 +2983,28 @@
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2955,19 +3022,19 @@
         <v>4</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="n">
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2976,7 +3043,7 @@
         <v>15</v>
       </c>
       <c r="AT14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -2997,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.273</v>
+        <v>0.267</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>11.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3092,31 +3159,31 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3125,16 +3192,16 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
@@ -3143,13 +3210,13 @@
         <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
@@ -3161,25 +3228,25 @@
         <v>15</v>
       </c>
       <c r="AU15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX15" t="n">
         <v>22</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA15" t="n">
         <v>17</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>20</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.727</v>
+        <v>0.721</v>
       </c>
       <c r="H16" t="n">
         <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J16" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.465</v>
@@ -3241,19 +3308,19 @@
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
         <v>10.3</v>
@@ -3262,16 +3329,16 @@
         <v>32.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V16" t="n">
         <v>13.1</v>
       </c>
       <c r="W16" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>4.5</v>
@@ -3283,19 +3350,19 @@
         <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
         <v>101.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3325,16 +3392,16 @@
         <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
         <v>14</v>
@@ -3343,16 +3410,16 @@
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3507,13 +3574,13 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>9</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>7</v>
@@ -3704,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3719,7 +3786,7 @@
         <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>0.159</v>
+        <v>0.163</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="J19" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O19" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P19" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="Q19" t="n">
         <v>0.744</v>
       </c>
       <c r="R19" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="T19" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U19" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
@@ -3823,22 +3890,22 @@
         <v>4.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-9.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3853,13 +3920,13 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3871,13 +3938,13 @@
         <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3889,7 +3956,7 @@
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3898,10 +3965,10 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -3957,13 +4024,13 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>6.5</v>
@@ -3972,37 +4039,37 @@
         <v>18.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.345</v>
+        <v>0.341</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
         <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,16 +4078,16 @@
         <v>19.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4032,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
@@ -4041,7 +4108,7 @@
         <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,31 +4117,31 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -4202,31 +4269,31 @@
         <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM21" t="n">
         <v>20</v>
@@ -4244,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -4306,19 +4373,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
         <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
         <v>37.5</v>
@@ -4327,7 +4394,7 @@
         <v>85.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L22" t="n">
         <v>7.4</v>
@@ -4336,28 +4403,28 @@
         <v>23</v>
       </c>
       <c r="N22" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="O22" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P22" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="T22" t="n">
-        <v>46.6</v>
+        <v>46.5</v>
       </c>
       <c r="U22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
         <v>14.9</v>
@@ -4366,7 +4433,7 @@
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
@@ -4375,19 +4442,19 @@
         <v>22.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
@@ -4396,19 +4463,19 @@
         <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4423,10 +4490,10 @@
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4441,25 +4508,25 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -4503,13 +4570,13 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
@@ -4518,25 +4585,25 @@
         <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O23" t="n">
         <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="U23" t="n">
         <v>20.5</v>
@@ -4545,31 +4612,31 @@
         <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
         <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
@@ -4584,13 +4651,13 @@
         <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>23</v>
@@ -4605,7 +4672,7 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
@@ -4617,28 +4684,28 @@
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" t="n">
-        <v>0.178</v>
+        <v>0.182</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
         <v>81</v>
       </c>
       <c r="K24" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.297</v>
+        <v>0.299</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
@@ -4709,22 +4776,22 @@
         <v>24.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.681</v>
+        <v>0.679</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U24" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V24" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
@@ -4733,22 +4800,22 @@
         <v>5.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.5</v>
+        <v>89.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.8</v>
+        <v>-12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
@@ -4805,19 +4872,19 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -4948,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4963,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4972,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS25" t="n">
         <v>19</v>
@@ -4996,13 +5063,13 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5124,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5160,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5181,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>22</v>
@@ -5309,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5339,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.622</v>
+        <v>0.63</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.767</v>
@@ -5443,22 +5510,22 @@
         <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5473,19 +5540,19 @@
         <v>101.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>2</v>
@@ -5494,10 +5561,10 @@
         <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,13 +5573,13 @@
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>11</v>
@@ -5521,19 +5588,19 @@
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5545,7 +5612,7 @@
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>5</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
         <v>9</v>
@@ -5679,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5697,7 +5764,7 @@
         <v>4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR29" t="n">
         <v>9</v>
@@ -5706,7 +5773,7 @@
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,37 +5847,37 @@
         <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L30" t="n">
         <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P30" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
         <v>20.4</v>
@@ -5822,34 +5889,34 @@
         <v>6.9</v>
       </c>
       <c r="X30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5870,16 +5937,16 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>16</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5909,10 +5976,10 @@
         <v>5</v>
       </c>
       <c r="BA30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>6</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6061,19 +6128,19 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR31" t="n">
         <v>23</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV31" t="n">
         <v>20</v>
@@ -6082,19 +6149,19 @@
         <v>14</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA31" t="n">
         <v>19</v>
       </c>
-      <c r="BA31" t="n">
+      <c r="BB31" t="n">
         <v>18</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-26-2014-15</t>
+          <t>2015-01-26</t>
         </is>
       </c>
     </row>
